--- a/LectureTimeTable/LectureTimeTable/bin/Debug/Folder/시간표.xlsx
+++ b/LectureTimeTable/LectureTimeTable/bin/Debug/Folder/시간표.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\en#\LectureTimeTable\LectureTimeTable\bin\Debug\Folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9145053F-00C2-4E26-A75D-317C8817F25B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9D723A-1601-4538-A010-8BA94753651B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{98DCB90C-B2B2-43E3-869D-48D56399F468}"/>
   </bookViews>
@@ -516,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E59B38A3-FBFA-4A1D-9C4B-17D3493732DB}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
